--- a/TridentDD_data (1).xlsx
+++ b/TridentDD_data (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/06a42fb17cfe89d0/Ecotoxicology Lab/SERDP iTIE/Trident Drawdown/tridentdrawdown/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="313" documentId="13_ncr:1_{EF90E304-7192-4347-B2F1-3D754446EEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E622D824-CBF3-4D57-B466-BE2E16606C0D}"/>
+  <xr:revisionPtr revIDLastSave="320" documentId="13_ncr:1_{EF90E304-7192-4347-B2F1-3D754446EEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FDEBE4D-E397-4C7B-B61E-8180776BF47B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old_Dye_Curve" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="SF_Run1(2in)" sheetId="30" r:id="rId14"/>
     <sheet name="SF_Run2(3in)" sheetId="29" r:id="rId15"/>
     <sheet name="SF_Run3(3in)" sheetId="31" r:id="rId16"/>
+    <sheet name="NCC_Run1(3in)" sheetId="32" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="103">
   <si>
     <t>Wavelength</t>
   </si>
@@ -353,6 +354,30 @@
   <si>
     <t>exp(490)/exp(580)</t>
   </si>
+  <si>
+    <t>ND_1</t>
+  </si>
+  <si>
+    <t>ND_2</t>
+  </si>
+  <si>
+    <t>ND_3</t>
+  </si>
+  <si>
+    <t>ST_1</t>
+  </si>
+  <si>
+    <t>ST_2</t>
+  </si>
+  <si>
+    <t>Value too high</t>
+  </si>
+  <si>
+    <t>ST_3</t>
+  </si>
+  <si>
+    <t>.2.347</t>
+  </si>
 </sst>
 </file>
 
@@ -361,11 +386,11 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.000000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000000000000000000000000000000000"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="167" formatCode="0.000000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000000000000000000000000000000000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,8 +498,22 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -599,6 +638,24 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9C9C9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D08E"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -966,7 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1086,7 +1143,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1116,17 +1173,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1156,6 +1210,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1188,6 +1245,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -15663,13 +15731,13 @@
         <f>_xlfn.T.TEST(O12:O20,#REF!,2, 1)</f>
         <v>#REF!</v>
       </c>
-      <c r="AD3" s="104" t="s">
+      <c r="AD3" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="AE3" s="105"/>
-      <c r="AF3" s="105"/>
-      <c r="AG3" s="105"/>
-      <c r="AH3" s="106"/>
+      <c r="AE3" s="104"/>
+      <c r="AF3" s="104"/>
+      <c r="AG3" s="104"/>
+      <c r="AH3" s="105"/>
       <c r="AI3" s="35"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
@@ -15717,11 +15785,11 @@
       </c>
       <c r="P4" s="35"/>
       <c r="AC4" s="35"/>
-      <c r="AD4" s="107"/>
-      <c r="AE4" s="108"/>
-      <c r="AF4" s="108"/>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="109"/>
+      <c r="AD4" s="106"/>
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="108"/>
       <c r="AI4" s="35"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
@@ -15769,11 +15837,11 @@
       </c>
       <c r="P5" s="35"/>
       <c r="AC5" s="35"/>
-      <c r="AD5" s="107"/>
-      <c r="AE5" s="108"/>
-      <c r="AF5" s="108"/>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="109"/>
+      <c r="AD5" s="106"/>
+      <c r="AE5" s="107"/>
+      <c r="AF5" s="107"/>
+      <c r="AG5" s="107"/>
+      <c r="AH5" s="108"/>
       <c r="AI5" s="35"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -15875,13 +15943,13 @@
       </c>
       <c r="P7" s="35"/>
       <c r="AC7" s="35"/>
-      <c r="AD7" s="101" t="s">
+      <c r="AD7" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="103"/>
+      <c r="AE7" s="101"/>
+      <c r="AF7" s="101"/>
+      <c r="AG7" s="101"/>
+      <c r="AH7" s="102"/>
       <c r="AI7" s="35"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -15984,12 +16052,12 @@
       <c r="P9" s="35"/>
       <c r="AB9" s="35"/>
       <c r="AC9" s="35"/>
-      <c r="AD9" s="110" t="s">
+      <c r="AD9" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="AE9" s="100"/>
-      <c r="AF9" s="100"/>
-      <c r="AG9" s="100"/>
+      <c r="AE9" s="110"/>
+      <c r="AF9" s="110"/>
+      <c r="AG9" s="110"/>
       <c r="AH9" s="111"/>
       <c r="AI9" s="35"/>
     </row>
@@ -23670,6 +23738,1063 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6626891-5EEB-4BA8-AD74-26A486C15595}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="122">
+        <v>310</v>
+      </c>
+      <c r="C1" s="122">
+        <v>340</v>
+      </c>
+      <c r="D1" s="122">
+        <v>370</v>
+      </c>
+      <c r="E1" s="122">
+        <v>400</v>
+      </c>
+      <c r="F1" s="122">
+        <v>430</v>
+      </c>
+      <c r="G1" s="122">
+        <v>460</v>
+      </c>
+      <c r="H1" s="123">
+        <v>490</v>
+      </c>
+      <c r="I1" s="122">
+        <v>520</v>
+      </c>
+      <c r="J1" s="122">
+        <v>550</v>
+      </c>
+      <c r="K1" s="124">
+        <v>580</v>
+      </c>
+      <c r="L1" s="125">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="126" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="127">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C2" s="127">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D2" s="127">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E2" s="127">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="F2" s="127">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G2" s="127">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H2" s="127">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="I2" s="127">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J2" s="127">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="K2" s="127">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L2" s="127">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="C3" s="127">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D3" s="127">
+        <v>0.2</v>
+      </c>
+      <c r="E3" s="127">
+        <v>0.16</v>
+      </c>
+      <c r="F3" s="127">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G3" s="127">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="H3" s="127">
+        <v>0.105</v>
+      </c>
+      <c r="I3" s="127">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="J3" s="127">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K3" s="127">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="L3" s="127">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="126" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="127">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="C5" s="127">
+        <v>0.246</v>
+      </c>
+      <c r="D5" s="127">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="E5" s="127">
+        <v>0.152</v>
+      </c>
+      <c r="F5" s="127">
+        <v>0.126</v>
+      </c>
+      <c r="G5" s="127">
+        <v>0.107</v>
+      </c>
+      <c r="H5" s="127">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I5" s="127">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J5" s="127">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K5" s="127">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="L5" s="127">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="127">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="C6" s="127">
+        <v>0.314</v>
+      </c>
+      <c r="D6" s="127">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="E6" s="127">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F6" s="128">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G6" s="127">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H6" s="127">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I6" s="127">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J6" s="127">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="127">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L6" s="127">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="126" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="127">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="C7" s="127">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D7" s="127">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E7" s="127">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="F7" s="127">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="G7" s="127">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H7" s="127">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I7" s="127">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J7" s="127">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K7" s="128">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L7" s="127">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="126" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="127">
+        <v>0.52</v>
+      </c>
+      <c r="C8" s="127">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D8" s="127">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E8" s="127">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F8" s="127">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="G8" s="127">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="H8" s="127">
+        <v>2.4E-2</v>
+      </c>
+      <c r="I8" s="127">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J8" s="127">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K8" s="127">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L8" s="127">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="126" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="127">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C9" s="127">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D9" s="127">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E9" s="127">
+        <v>-1E-3</v>
+      </c>
+      <c r="F9" s="127">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="127">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="127">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="I9" s="127">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="127">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K9" s="127">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="L9" s="127">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="126" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="127">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="C10" s="127">
+        <v>0.253</v>
+      </c>
+      <c r="D10" s="127">
+        <v>0.193</v>
+      </c>
+      <c r="E10" s="127">
+        <v>0.15</v>
+      </c>
+      <c r="F10" s="127">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G10" s="127">
+        <v>0.184</v>
+      </c>
+      <c r="H10" s="127">
+        <v>0.317</v>
+      </c>
+      <c r="I10" s="127">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J10" s="127">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="K10" s="127">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="L10" s="127">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="127">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="C11" s="127">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="D11" s="127">
+        <v>0.216</v>
+      </c>
+      <c r="E11" s="127">
+        <v>0.17</v>
+      </c>
+      <c r="F11" s="127">
+        <v>0.153</v>
+      </c>
+      <c r="G11" s="127">
+        <v>0.19</v>
+      </c>
+      <c r="H11" s="127">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="127">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="J11" s="127">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="K11" s="127">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L11" s="127">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="126" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="127">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="C12" s="127">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="D12" s="127">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E12" s="127">
+        <v>0.159</v>
+      </c>
+      <c r="F12" s="127">
+        <v>0.151</v>
+      </c>
+      <c r="G12" s="127">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H12" s="127">
+        <v>0.433</v>
+      </c>
+      <c r="I12" s="127">
+        <v>9.4E-2</v>
+      </c>
+      <c r="J12" s="127">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="K12" s="127">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="L12" s="127">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="129" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="127">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="C13" s="127">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D13" s="127">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="E13" s="127">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="F13" s="127">
+        <v>0.121</v>
+      </c>
+      <c r="G13" s="127">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="H13" s="127">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I13" s="127">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="J13" s="127">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="K13" s="127">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L13" s="127">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="127">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C14" s="127">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="D14" s="127">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="E14" s="127">
+        <v>0.187</v>
+      </c>
+      <c r="F14" s="127">
+        <v>0.112</v>
+      </c>
+      <c r="G14" s="127">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="H14" s="127">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I14" s="127">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J14" s="127">
+        <v>2.7E-2</v>
+      </c>
+      <c r="K14" s="127">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L14" s="127">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="127">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="C15" s="127">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D15" s="127">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="E15" s="127">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="F15" s="127">
+        <v>0.123</v>
+      </c>
+      <c r="G15" s="127">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="H15" s="127">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I15" s="127">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J15" s="127">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K15" s="127">
+        <v>2.7E-2</v>
+      </c>
+      <c r="L15" s="127">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="129" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="127">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="C16" s="127">
+        <v>0.628</v>
+      </c>
+      <c r="D16" s="127">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="127">
+        <v>0.218</v>
+      </c>
+      <c r="F16" s="127">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G16" s="127">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="H16" s="127">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I16" s="127">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J16" s="127">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K16" s="127">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="L16" s="127">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="129" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="127">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="C17" s="127">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D17" s="127">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="E17" s="127">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="F17" s="127">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G17" s="127">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="H17" s="127">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I17" s="127">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J17" s="127">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="K17" s="127">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="L17" s="127">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="127">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="C18" s="127">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D18" s="127">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="E18" s="127">
+        <v>0.215</v>
+      </c>
+      <c r="F18" s="127">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G18" s="127">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="H18" s="127">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I18" s="127">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J18" s="127">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="K18" s="127">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="L18" s="127">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="127">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="C19" s="127">
+        <v>0.64</v>
+      </c>
+      <c r="D19" s="127">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="E19" s="127">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="F19" s="127">
+        <v>0.155</v>
+      </c>
+      <c r="G19" s="127">
+        <v>0.113</v>
+      </c>
+      <c r="H19" s="127">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I19" s="127">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J19" s="127">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="K19" s="127">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="L19" s="127">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="129" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="127">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="C20" s="127">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D20" s="127">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="E20" s="127">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F20" s="127">
+        <v>0.124</v>
+      </c>
+      <c r="G20" s="127">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="H20" s="127">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I20" s="127">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="J20" s="127">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="K20" s="127">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="L20" s="127">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="129" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="127">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="C21" s="127">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D21" s="127">
+        <v>0.375</v>
+      </c>
+      <c r="E21" s="127">
+        <v>0.222</v>
+      </c>
+      <c r="F21" s="127">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="G21" s="127">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="H21" s="127">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I21" s="127">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="J21" s="127">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="K21" s="127">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="L21" s="127">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="127">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="C22" s="127">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D22" s="127">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E22" s="127">
+        <v>0</v>
+      </c>
+      <c r="F22" s="127">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="G22" s="127">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="127">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="I22" s="127">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="J22" s="127">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="K22" s="127">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+      <c r="L22" s="127">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="127">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="C23" s="127">
+        <v>0.158</v>
+      </c>
+      <c r="D23" s="127">
+        <v>0.1</v>
+      </c>
+      <c r="E23" s="127">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F23" s="127">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G23" s="127">
+        <v>0.108</v>
+      </c>
+      <c r="H23" s="127">
+        <v>0.245</v>
+      </c>
+      <c r="I23" s="127">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J23" s="127">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K23" s="127">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L23" s="127">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="130">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="C24" s="130">
+        <v>0.152</v>
+      </c>
+      <c r="D24" s="130">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E24" s="130">
+        <v>6.2E-2</v>
+      </c>
+      <c r="F24" s="130">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G24" s="130">
+        <v>0.105</v>
+      </c>
+      <c r="H24" s="130">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="I24" s="130">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J24" s="130">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="K24" s="130">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L24" s="130">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="131" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="130">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="C25" s="130">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="D25" s="130">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E25" s="130">
+        <v>6.3E-2</v>
+      </c>
+      <c r="F25" s="130">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="G25" s="130">
+        <v>0.107</v>
+      </c>
+      <c r="H25" s="130">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="I25" s="130">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J25" s="130">
+        <v>1.2E-2</v>
+      </c>
+      <c r="K25" s="130">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L25" s="130">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="127" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="127">
+        <v>2.9809999999999999</v>
+      </c>
+      <c r="C26" s="127">
+        <v>2.669</v>
+      </c>
+      <c r="D26" s="127">
+        <v>2.44</v>
+      </c>
+      <c r="E26" s="127">
+        <v>2.173</v>
+      </c>
+      <c r="F26" s="127">
+        <v>1.992</v>
+      </c>
+      <c r="G26" s="127">
+        <v>1.861</v>
+      </c>
+      <c r="H26" s="127">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="I26" s="127">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="J26" s="127">
+        <v>1.617</v>
+      </c>
+      <c r="K26" s="127">
+        <v>1.5580000000000001</v>
+      </c>
+      <c r="L26" s="127">
+        <v>1.508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="127" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="127" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="127">
+        <v>2.7389999999999999</v>
+      </c>
+      <c r="G27" s="127">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="H27" s="127">
+        <v>2.415</v>
+      </c>
+      <c r="I27" s="127">
+        <v>2.2949999999999999</v>
+      </c>
+      <c r="J27" s="127">
+        <v>2.1960000000000002</v>
+      </c>
+      <c r="K27" s="127">
+        <v>2.1219999999999999</v>
+      </c>
+      <c r="L27" s="127">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="127" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="127">
+        <v>2.6269999999999998</v>
+      </c>
+      <c r="C28" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="D28" s="127">
+        <v>2.1469999999999998</v>
+      </c>
+      <c r="E28" s="127">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="F28" s="127">
+        <v>1.7470000000000001</v>
+      </c>
+      <c r="G28" s="127">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="H28" s="127">
+        <v>1.5389999999999999</v>
+      </c>
+      <c r="I28" s="127">
+        <v>1.458</v>
+      </c>
+      <c r="J28" s="127">
+        <v>1.387</v>
+      </c>
+      <c r="K28" s="127">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="L28" s="127">
+        <v>1.2769999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514A3E7E-D3F5-4598-9A8F-9229F1EF099A}">
   <sheetPr>
@@ -23677,8 +24802,8 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
